--- a/ACADAMIC MONITORING TEAM 01.08.2023/OSC/OSC 11082023.xlsx
+++ b/ACADAMIC MONITORING TEAM 01.08.2023/OSC/OSC 11082023.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7574" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7824" uniqueCount="1510">
   <si>
     <t>School Dropout</t>
   </si>
@@ -4403,6 +4403,159 @@
   </si>
   <si>
     <t>WEST GODAVARI</t>
+  </si>
+  <si>
+    <t>GTWAHS BHAMINI</t>
+  </si>
+  <si>
+    <t>APRS BHADRAGIRI BOYS</t>
+  </si>
+  <si>
+    <t>MIGRATE TO BANGALORE</t>
+  </si>
+  <si>
+    <t>GTWAGHS UDAYAPURAM</t>
+  </si>
+  <si>
+    <t>SURESH SCHOOL PPM</t>
+  </si>
+  <si>
+    <t>EMRS SARAI VALASA</t>
+  </si>
+  <si>
+    <t>GTWAHS LANKAJODU</t>
+  </si>
+  <si>
+    <t>GPS KOSAGUDA</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>EMRS PANASABHADRA</t>
+  </si>
+  <si>
+    <t>NO CHILD</t>
+  </si>
+  <si>
+    <t>SRI PRAGNA SCHOOL PPM</t>
+  </si>
+  <si>
+    <t>OPEN 10TH</t>
+  </si>
+  <si>
+    <t>GPSTW ETHAMANUGUDA</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE 2ND YEAR</t>
+  </si>
+  <si>
+    <t>KGBV BHAMINI</t>
+  </si>
+  <si>
+    <t>TOBE OPEN 10TH</t>
+  </si>
+  <si>
+    <t>MARRIED 08.06.2008</t>
+  </si>
+  <si>
+    <t>OVER AGE</t>
+  </si>
+  <si>
+    <t>GTWAGHS NEELAKANTAPURAM</t>
+  </si>
+  <si>
+    <t>GTWAHS T K JAMMU</t>
+  </si>
+  <si>
+    <t>GTWAHS NEELAKANTAPURAM</t>
+  </si>
+  <si>
+    <t>ZPHS KURUPAM</t>
+  </si>
+  <si>
+    <t>GTWAHS BEERUPADU</t>
+  </si>
+  <si>
+    <t>SICKENESS</t>
+  </si>
+  <si>
+    <t>MIGRATED</t>
+  </si>
+  <si>
+    <t>MIGRATED TO ODISHA</t>
+  </si>
+  <si>
+    <t>EMRS VZM</t>
+  </si>
+  <si>
+    <t>KGBV G L PURAM</t>
+  </si>
+  <si>
+    <t>GTWAHS VANAJA</t>
+  </si>
+  <si>
+    <t>CWSN</t>
+  </si>
+  <si>
+    <t>EMRS G L PURAM</t>
+  </si>
+  <si>
+    <t>CWSN - 10TH PASSED</t>
+  </si>
+  <si>
+    <t>MARRIED (17YEARS)</t>
+  </si>
+  <si>
+    <t>MARRIED (18YEARS)</t>
+  </si>
+  <si>
+    <t>MPPS GAJUVAKA</t>
+  </si>
+  <si>
+    <t>SRI KRISHNA PPM</t>
+  </si>
+  <si>
+    <t>MARRIED</t>
+  </si>
+  <si>
+    <t>GTWAHS PODI</t>
+  </si>
+  <si>
+    <t>ORPHAN</t>
+  </si>
+  <si>
+    <t>CWSN (MD)</t>
+  </si>
+  <si>
+    <t>GTWAHS UDAYAPURAM</t>
+  </si>
+  <si>
+    <t>SARADHI VOC COLLEGE</t>
+  </si>
+  <si>
+    <t>GTWAHS P AMITY</t>
+  </si>
+  <si>
+    <t>GPSTW LAPPATI</t>
+  </si>
+  <si>
+    <t>GTWAHS G SIVADA</t>
+  </si>
+  <si>
+    <t>GPS NELLIKIKKUVA</t>
+  </si>
+  <si>
+    <t>GPSTW VADAPUTTI</t>
+  </si>
+  <si>
+    <t>GTWAHS P.AMITY</t>
+  </si>
+  <si>
+    <t>AES CHINTHALAGUDA</t>
+  </si>
+  <si>
+    <t>TO BE JOINED</t>
   </si>
 </sst>
 </file>
@@ -4607,6 +4760,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4621,15 +4783,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4934,7 +5087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W315"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A303" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
@@ -4963,31 +5116,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1155</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -26023,11 +26176,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>1449</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:4" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -26239,17 +26392,17 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+    <row r="17" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>1168</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="26">
         <v>7</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -26309,17 +26462,17 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+    <row r="22" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>20</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="27" t="s">
         <v>1354</v>
       </c>
-      <c r="C22" s="31">
-        <v>5</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="26">
+        <v>5</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -26351,17 +26504,17 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+    <row r="25" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>23</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="27" t="s">
         <v>1316</v>
       </c>
-      <c r="C25" s="31">
-        <v>4</v>
-      </c>
-      <c r="D25" s="33" t="s">
+      <c r="C25" s="26">
+        <v>4</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -26379,17 +26532,17 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+    <row r="27" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
         <v>25</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>1246</v>
       </c>
-      <c r="C27" s="31">
-        <v>4</v>
-      </c>
-      <c r="D27" s="33" t="s">
+      <c r="C27" s="26">
+        <v>4</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -26421,17 +26574,17 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+    <row r="30" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
         <v>28</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="27" t="s">
         <v>1201</v>
       </c>
-      <c r="C30" s="31">
-        <v>3</v>
-      </c>
-      <c r="D30" s="33" t="s">
+      <c r="C30" s="26">
+        <v>3</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -26449,59 +26602,59 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
+    <row r="32" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
         <v>30</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="27" t="s">
         <v>1247</v>
       </c>
-      <c r="C32" s="31">
-        <v>3</v>
-      </c>
-      <c r="D32" s="33" t="s">
+      <c r="C32" s="26">
+        <v>3</v>
+      </c>
+      <c r="D32" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
+    <row r="33" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <v>31</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="27" t="s">
         <v>1317</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="26">
         <v>2</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="28" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+    <row r="34" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
         <v>32</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="27" t="s">
         <v>1286</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="26">
         <v>2</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="28" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
+    <row r="35" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
         <v>33</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="27" t="s">
         <v>1409</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="26">
         <v>2</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -26519,199 +26672,199 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
+    <row r="37" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
         <v>35</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="27" t="s">
         <v>1170</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="26">
         <v>2</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
+    <row r="38" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
         <v>36</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="27" t="s">
         <v>1411</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="26">
         <v>2</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="28" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31">
+    <row r="39" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
         <v>37</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="27" t="s">
         <v>1410</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="26">
         <v>2</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="28" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
+    <row r="40" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
         <v>38</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>1412</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="26">
         <v>2</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31">
+    <row r="41" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>39</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="27" t="s">
         <v>1439</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="26">
         <v>1</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31">
+    <row r="42" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
         <v>40</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="27" t="s">
         <v>1442</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="26">
         <v>1</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="28" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31">
+    <row r="43" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
         <v>41</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="27" t="s">
         <v>1438</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="26">
         <v>1</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="28" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31">
+    <row r="44" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
         <v>42</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="27" t="s">
         <v>1285</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="26">
         <v>1</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="28" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
+    <row r="45" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
         <v>43</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="27" t="s">
         <v>1199</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="26">
         <v>1</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="28" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+    <row r="46" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
         <v>44</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="27" t="s">
         <v>1407</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="26">
         <v>1</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+    <row r="47" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
         <v>45</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="27" t="s">
         <v>1440</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="26">
         <v>1</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="28" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31">
+    <row r="48" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26">
         <v>46</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="27" t="s">
         <v>1406</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="26">
         <v>1</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="28" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31">
+    <row r="49" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
         <v>47</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="27" t="s">
         <v>1413</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="26">
         <v>1</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="28" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31">
+    <row r="50" spans="1:4" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
         <v>48</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="27" t="s">
         <v>1318</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="26">
         <v>1</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="28" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -26754,13 +26907,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z315"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26775,47 +26928,47 @@
     <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" customWidth="1"/>
     <col min="22" max="22" width="14.5703125" style="10" customWidth="1"/>
     <col min="23" max="23" width="25" style="1" customWidth="1"/>
     <col min="24" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>1443</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="32"/>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -26888,7 +27041,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -26953,9 +27106,11 @@
       <c r="V3" s="9">
         <v>785873436032</v>
       </c>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="5" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>A3+1</f>
         <v>2</v>
@@ -27021,9 +27176,11 @@
       <c r="V4" s="9">
         <v>915040644147</v>
       </c>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="5" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -27089,9 +27246,11 @@
       <c r="V5" s="9">
         <v>509293449329</v>
       </c>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="5" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -27158,10 +27317,10 @@
         <v>729213095376</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -27226,9 +27385,11 @@
       <c r="V7" s="9">
         <v>268592411998</v>
       </c>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -27294,9 +27455,11 @@
       <c r="V8" s="9">
         <v>998384306755</v>
       </c>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -27364,9 +27527,11 @@
       <c r="V9" s="9">
         <v>352101197958</v>
       </c>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -27434,9 +27599,11 @@
       <c r="V10" s="9">
         <v>722743561395</v>
       </c>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27504,9 +27671,11 @@
       <c r="V11" s="9">
         <v>400630117196</v>
       </c>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="5" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27572,9 +27741,11 @@
       <c r="V12" s="9">
         <v>282909361897</v>
       </c>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="5" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27642,9 +27813,11 @@
       <c r="V13" s="9">
         <v>436916838390</v>
       </c>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="5" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -27712,9 +27885,11 @@
       <c r="V14" s="9">
         <v>233542299370</v>
       </c>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -27782,9 +27957,11 @@
       <c r="V15" s="9">
         <v>369840281968</v>
       </c>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -27852,9 +28029,11 @@
       <c r="V16" s="9">
         <v>467649345309</v>
       </c>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="5" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -27922,9 +28101,11 @@
       <c r="V17" s="9">
         <v>773774637186</v>
       </c>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -27992,9 +28173,11 @@
       <c r="V18" s="9">
         <v>431512491851</v>
       </c>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="5" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -28062,9 +28245,11 @@
       <c r="V19" s="9">
         <v>615243542481</v>
       </c>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -28130,9 +28315,11 @@
       <c r="V20" s="9">
         <v>823429409247</v>
       </c>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -28198,9 +28385,11 @@
       <c r="V21" s="9">
         <v>851128054121</v>
       </c>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -28268,9 +28457,11 @@
       <c r="V22" s="9">
         <v>778823380166</v>
       </c>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -28336,9 +28527,11 @@
       <c r="V23" s="9">
         <v>346530013643</v>
       </c>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -28404,9 +28597,11 @@
       <c r="V24" s="9">
         <v>832173281928</v>
       </c>
-      <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -28474,9 +28669,11 @@
       <c r="V25" s="9">
         <v>758838531733</v>
       </c>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -28544,9 +28741,11 @@
       <c r="V26" s="9">
         <v>561038094376</v>
       </c>
-      <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -28614,9 +28813,11 @@
       <c r="V27" s="9">
         <v>910373525738</v>
       </c>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W27" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -28682,9 +28883,11 @@
       <c r="V28" s="9">
         <v>676717547160</v>
       </c>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -28750,9 +28953,11 @@
       <c r="V29" s="9">
         <v>695599895083</v>
       </c>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -28820,9 +29025,11 @@
       <c r="V30" s="9">
         <v>671347287443</v>
       </c>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -28890,9 +29097,11 @@
       <c r="V31" s="9">
         <v>441356961672</v>
       </c>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -28960,9 +29169,11 @@
       <c r="V32" s="9">
         <v>217781787456</v>
       </c>
-      <c r="W32" s="5"/>
-    </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W32" s="5" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -29028,9 +29239,11 @@
       <c r="V33" s="9">
         <v>547334394390</v>
       </c>
-      <c r="W33" s="5"/>
-    </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="5" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -29094,7 +29307,9 @@
       <c r="V34" s="9">
         <v>773635281460</v>
       </c>
-      <c r="W34" s="5"/>
+      <c r="W34" s="5" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="35" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
@@ -29160,9 +29375,11 @@
         <v>0</v>
       </c>
       <c r="V35" s="9"/>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="5" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -29228,9 +29445,11 @@
       <c r="V36" s="9">
         <v>540820795812</v>
       </c>
-      <c r="W36" s="5"/>
-    </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -29296,9 +29515,11 @@
       <c r="V37" s="9">
         <v>874087084903</v>
       </c>
-      <c r="W37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -29364,9 +29585,11 @@
       <c r="V38" s="9">
         <v>791945914763</v>
       </c>
-      <c r="W38" s="5"/>
-    </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -29432,9 +29655,11 @@
       <c r="V39" s="9">
         <v>968182364908</v>
       </c>
-      <c r="W39" s="5"/>
-    </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -29500,9 +29725,11 @@
       <c r="V40" s="9">
         <v>495036790117</v>
       </c>
-      <c r="W40" s="5"/>
-    </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -29568,9 +29795,11 @@
       <c r="V41" s="9">
         <v>657611072962</v>
       </c>
-      <c r="W41" s="5"/>
-    </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -29636,9 +29865,11 @@
       <c r="V42" s="9">
         <v>817146437593</v>
       </c>
-      <c r="W42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W42" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -29704,9 +29935,11 @@
       <c r="V43" s="9">
         <v>515608181648</v>
       </c>
-      <c r="W43" s="5"/>
-    </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W43" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -29772,9 +30005,11 @@
       <c r="V44" s="9">
         <v>439941531656</v>
       </c>
-      <c r="W44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -29840,9 +30075,11 @@
       <c r="V45" s="9">
         <v>842796173655</v>
       </c>
-      <c r="W45" s="5"/>
-    </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W45" s="5" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -29908,9 +30145,11 @@
       <c r="V46" s="9">
         <v>275213042713</v>
       </c>
-      <c r="W46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="5" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -29978,9 +30217,11 @@
       <c r="V47" s="9">
         <v>493131099218</v>
       </c>
-      <c r="W47" s="5"/>
-    </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W47" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -30048,9 +30289,11 @@
       <c r="V48" s="9">
         <v>470481315810</v>
       </c>
-      <c r="W48" s="5"/>
-    </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -30118,9 +30361,11 @@
       <c r="V49" s="9">
         <v>984169491916</v>
       </c>
-      <c r="W49" s="5"/>
-    </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W49" s="5" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -30186,9 +30431,11 @@
       <c r="V50" s="9">
         <v>852004762649</v>
       </c>
-      <c r="W50" s="5"/>
-    </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W50" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -30256,9 +30503,11 @@
       <c r="V51" s="9">
         <v>275480816789</v>
       </c>
-      <c r="W51" s="5"/>
-    </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W51" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -30326,9 +30575,11 @@
       <c r="V52" s="9">
         <v>676312508250</v>
       </c>
-      <c r="W52" s="5"/>
-    </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W52" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -30394,9 +30645,11 @@
       <c r="V53" s="9">
         <v>612653974325</v>
       </c>
-      <c r="W53" s="5"/>
-    </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W53" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -30460,9 +30713,11 @@
       <c r="V54" s="9">
         <v>837099670579</v>
       </c>
-      <c r="W54" s="5"/>
-    </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W54" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -30528,9 +30783,11 @@
       <c r="V55" s="9">
         <v>636508397972</v>
       </c>
-      <c r="W55" s="5"/>
-    </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W55" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -30596,9 +30853,11 @@
       <c r="V56" s="9">
         <v>865613417028</v>
       </c>
-      <c r="W56" s="5"/>
-    </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -30664,9 +30923,11 @@
       <c r="V57" s="9">
         <v>217248174441</v>
       </c>
-      <c r="W57" s="5"/>
-    </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W57" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -30732,9 +30993,11 @@
       <c r="V58" s="9">
         <v>224121113344</v>
       </c>
-      <c r="W58" s="5"/>
-    </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W58" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -30798,9 +31061,11 @@
       <c r="V59" s="9">
         <v>950553107940</v>
       </c>
-      <c r="W59" s="5"/>
-    </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -30866,9 +31131,11 @@
       <c r="V60" s="9">
         <v>721853605020</v>
       </c>
-      <c r="W60" s="5"/>
-    </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W60" s="5" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -30934,9 +31201,11 @@
       <c r="V61" s="9">
         <v>742077922285</v>
       </c>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -31004,9 +31273,11 @@
       <c r="V62" s="9">
         <v>792004202168</v>
       </c>
-      <c r="W62" s="5"/>
-    </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W62" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -31070,9 +31341,11 @@
       <c r="V63" s="9">
         <v>352940064098</v>
       </c>
-      <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W63" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -31138,9 +31411,11 @@
       <c r="V64" s="9">
         <v>352810125978</v>
       </c>
-      <c r="W64" s="5"/>
-    </row>
-    <row r="65" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W64" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -31208,9 +31483,11 @@
       <c r="V65" s="9">
         <v>958133498295</v>
       </c>
-      <c r="W65" s="5"/>
-    </row>
-    <row r="66" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W65" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -31276,9 +31553,11 @@
       <c r="V66" s="9">
         <v>359672928999</v>
       </c>
-      <c r="W66" s="5"/>
-    </row>
-    <row r="67" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W66" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -31344,9 +31623,11 @@
       <c r="V67" s="9">
         <v>382516785215</v>
       </c>
-      <c r="W67" s="5"/>
-    </row>
-    <row r="68" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="5" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -31410,9 +31691,11 @@
       <c r="V68" s="9">
         <v>647706760214</v>
       </c>
-      <c r="W68" s="5"/>
-    </row>
-    <row r="69" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W68" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>63</v>
@@ -31478,9 +31761,11 @@
       <c r="V69" s="9">
         <v>511078399477</v>
       </c>
-      <c r="W69" s="5"/>
-    </row>
-    <row r="70" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W69" s="5" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -31544,9 +31829,11 @@
       <c r="V70" s="9">
         <v>491816030121</v>
       </c>
-      <c r="W70" s="5"/>
-    </row>
-    <row r="71" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W70" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -31610,9 +31897,11 @@
       <c r="V71" s="9">
         <v>240124254694</v>
       </c>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W71" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -31678,9 +31967,11 @@
       <c r="V72" s="9">
         <v>466839794419</v>
       </c>
-      <c r="W72" s="5"/>
-    </row>
-    <row r="73" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W72" s="5" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -31748,9 +32039,11 @@
       <c r="V73" s="9">
         <v>327619463719</v>
       </c>
-      <c r="W73" s="5"/>
-    </row>
-    <row r="74" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W73" s="5" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -31816,9 +32109,11 @@
       <c r="V74" s="9">
         <v>395692931374</v>
       </c>
-      <c r="W74" s="5"/>
-    </row>
-    <row r="75" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W74" s="5" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -31886,9 +32181,11 @@
       <c r="V75" s="9">
         <v>706669624503</v>
       </c>
-      <c r="W75" s="5"/>
-    </row>
-    <row r="76" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W75" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -31954,9 +32251,11 @@
       <c r="V76" s="9">
         <v>799069488790</v>
       </c>
-      <c r="W76" s="5"/>
-    </row>
-    <row r="77" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W76" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -32022,9 +32321,11 @@
       <c r="V77" s="9">
         <v>810668857805</v>
       </c>
-      <c r="W77" s="5"/>
-    </row>
-    <row r="78" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W77" s="5" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -32096,7 +32397,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -32160,9 +32461,11 @@
       <c r="V79" s="9">
         <v>373038771944</v>
       </c>
-      <c r="W79" s="5"/>
-    </row>
-    <row r="80" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W79" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -32232,7 +32535,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -32304,7 +32607,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -32370,9 +32673,11 @@
       <c r="V82" s="9">
         <v>708775732311</v>
       </c>
-      <c r="W82" s="5"/>
-    </row>
-    <row r="83" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W82" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -32442,7 +32747,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="84" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -32512,7 +32817,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -32578,9 +32883,11 @@
       <c r="V85" s="9">
         <v>943234641291</v>
       </c>
-      <c r="W85" s="5"/>
-    </row>
-    <row r="86" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W85" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -32648,9 +32955,11 @@
       <c r="V86" s="9">
         <v>732662707658</v>
       </c>
-      <c r="W86" s="5"/>
-    </row>
-    <row r="87" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W86" s="5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -32716,9 +33025,11 @@
       <c r="V87" s="9">
         <v>527733300464</v>
       </c>
-      <c r="W87" s="5"/>
-    </row>
-    <row r="88" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W87" s="5" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -32787,10 +33098,10 @@
         <v>962113109103</v>
       </c>
       <c r="W88" s="5" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -32856,9 +33167,11 @@
       <c r="V89" s="9">
         <v>662418808306</v>
       </c>
-      <c r="W89" s="5"/>
-    </row>
-    <row r="90" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W89" s="5" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -32921,10 +33234,10 @@
         <v>701263732859</v>
       </c>
       <c r="W90" s="5" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -32988,9 +33301,11 @@
       <c r="V91" s="9">
         <v>969439936433</v>
       </c>
-      <c r="W91" s="5"/>
-    </row>
-    <row r="92" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W91" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -33058,9 +33373,11 @@
       <c r="V92" s="9">
         <v>231072497804</v>
       </c>
-      <c r="W92" s="5"/>
-    </row>
-    <row r="93" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W92" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -33126,9 +33443,11 @@
       <c r="V93" s="9">
         <v>459578799582</v>
       </c>
-      <c r="W93" s="5"/>
-    </row>
-    <row r="94" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W93" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -33194,9 +33513,11 @@
       <c r="V94" s="9">
         <v>509859877039</v>
       </c>
-      <c r="W94" s="5"/>
-    </row>
-    <row r="95" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W94" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -33264,9 +33585,11 @@
       <c r="V95" s="9">
         <v>486547090976</v>
       </c>
-      <c r="W95" s="5"/>
-    </row>
-    <row r="96" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W95" s="5" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -33334,9 +33657,11 @@
       <c r="V96" s="9">
         <v>597203838922</v>
       </c>
-      <c r="W96" s="5"/>
-    </row>
-    <row r="97" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W96" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -33404,9 +33729,11 @@
       <c r="V97" s="9">
         <v>378332330633</v>
       </c>
-      <c r="W97" s="5"/>
-    </row>
-    <row r="98" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W97" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -33472,9 +33799,11 @@
       <c r="V98" s="9">
         <v>368701278567</v>
       </c>
-      <c r="W98" s="5"/>
-    </row>
-    <row r="99" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W98" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -33540,9 +33869,11 @@
       <c r="V99" s="9">
         <v>296624161048</v>
       </c>
-      <c r="W99" s="5"/>
-    </row>
-    <row r="100" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W99" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -33608,9 +33939,11 @@
       <c r="V100" s="9">
         <v>973319155458</v>
       </c>
-      <c r="W100" s="5"/>
-    </row>
-    <row r="101" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W100" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -33676,9 +34009,11 @@
       <c r="V101" s="9">
         <v>353034643874</v>
       </c>
-      <c r="W101" s="5"/>
-    </row>
-    <row r="102" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W101" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -33746,9 +34081,11 @@
       <c r="V102" s="9">
         <v>611597699306</v>
       </c>
-      <c r="W102" s="5"/>
-    </row>
-    <row r="103" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W102" s="5" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -33814,9 +34151,11 @@
       <c r="V103" s="9">
         <v>909945140968</v>
       </c>
-      <c r="W103" s="5"/>
-    </row>
-    <row r="104" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W103" s="5" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -33882,9 +34221,11 @@
       <c r="V104" s="9">
         <v>429585376237</v>
       </c>
-      <c r="W104" s="5"/>
-    </row>
-    <row r="105" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W104" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -33950,9 +34291,11 @@
       <c r="V105" s="9">
         <v>859915549336</v>
       </c>
-      <c r="W105" s="5"/>
-    </row>
-    <row r="106" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W105" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -34018,9 +34361,11 @@
       <c r="V106" s="9">
         <v>644527806954</v>
       </c>
-      <c r="W106" s="5"/>
-    </row>
-    <row r="107" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W106" s="5" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -34088,7 +34433,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -34154,9 +34499,11 @@
       <c r="V108" s="9">
         <v>643463737695</v>
       </c>
-      <c r="W108" s="5"/>
-    </row>
-    <row r="109" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W108" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -34222,9 +34569,11 @@
       <c r="V109" s="9">
         <v>322699380505</v>
       </c>
-      <c r="W109" s="5"/>
-    </row>
-    <row r="110" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W109" s="5" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -34290,9 +34639,11 @@
       <c r="V110" s="9">
         <v>830857356620</v>
       </c>
-      <c r="W110" s="5"/>
-    </row>
-    <row r="111" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W110" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -34358,9 +34709,11 @@
       <c r="V111" s="9">
         <v>817939945771</v>
       </c>
-      <c r="W111" s="5"/>
-    </row>
-    <row r="112" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W111" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -34430,7 +34783,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -34502,7 +34855,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -34568,9 +34921,11 @@
       <c r="V114" s="9">
         <v>475712136692</v>
       </c>
-      <c r="W114" s="5"/>
-    </row>
-    <row r="115" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W114" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -34640,7 +34995,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -34706,9 +35061,11 @@
       <c r="V116" s="9">
         <v>453570935528</v>
       </c>
-      <c r="W116" s="5"/>
-    </row>
-    <row r="117" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W116" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -34772,9 +35129,11 @@
       <c r="V117" s="9">
         <v>424968220859</v>
       </c>
-      <c r="W117" s="5"/>
-    </row>
-    <row r="118" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W117" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -34840,9 +35199,11 @@
       <c r="V118" s="9">
         <v>548173142509</v>
       </c>
-      <c r="W118" s="5"/>
-    </row>
-    <row r="119" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W118" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -34908,9 +35269,11 @@
       <c r="V119" s="9">
         <v>879076993286</v>
       </c>
-      <c r="W119" s="5"/>
-    </row>
-    <row r="120" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W119" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -34976,9 +35339,11 @@
       <c r="V120" s="9">
         <v>819003025089</v>
       </c>
-      <c r="W120" s="5"/>
-    </row>
-    <row r="121" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W120" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -35046,9 +35411,11 @@
       <c r="V121" s="9">
         <v>803163614900</v>
       </c>
-      <c r="W121" s="5"/>
-    </row>
-    <row r="122" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W121" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -35114,9 +35481,11 @@
       <c r="V122" s="9">
         <v>616088417114</v>
       </c>
-      <c r="W122" s="5"/>
-    </row>
-    <row r="123" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W122" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -35182,9 +35551,11 @@
       <c r="V123" s="9">
         <v>612092015291</v>
       </c>
-      <c r="W123" s="5"/>
-    </row>
-    <row r="124" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W123" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -35254,7 +35625,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -35316,9 +35687,11 @@
       <c r="V125" s="9">
         <v>562417125042</v>
       </c>
-      <c r="W125" s="5"/>
-    </row>
-    <row r="126" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W125" s="5" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -35384,9 +35757,11 @@
       <c r="V126" s="9">
         <v>384018927543</v>
       </c>
-      <c r="W126" s="5"/>
-    </row>
-    <row r="127" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W126" s="5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -35452,9 +35827,11 @@
       <c r="V127" s="9">
         <v>936322790020</v>
       </c>
-      <c r="W127" s="5"/>
-    </row>
-    <row r="128" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W127" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -35518,11 +35895,13 @@
         <v>0</v>
       </c>
       <c r="V128" s="9">
-        <v>3398664123</v>
-      </c>
-      <c r="W128" s="5"/>
-    </row>
-    <row r="129" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>334986641235</v>
+      </c>
+      <c r="W128" s="5" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -35588,9 +35967,11 @@
       <c r="V129" s="9">
         <v>786884631222</v>
       </c>
-      <c r="W129" s="5"/>
-    </row>
-    <row r="130" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W129" s="5" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -35656,9 +36037,11 @@
       <c r="V130" s="9">
         <v>987293552283</v>
       </c>
-      <c r="W130" s="5"/>
-    </row>
-    <row r="131" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W130" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -35724,9 +36107,11 @@
       <c r="V131" s="9">
         <v>383606107853</v>
       </c>
-      <c r="W131" s="5"/>
-    </row>
-    <row r="132" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W131" s="5" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -35792,9 +36177,11 @@
       <c r="V132" s="9">
         <v>319367216723</v>
       </c>
-      <c r="W132" s="5"/>
-    </row>
-    <row r="133" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W132" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>127</v>
@@ -35860,9 +36247,11 @@
       <c r="V133" s="9">
         <v>785424427432</v>
       </c>
-      <c r="W133" s="5"/>
-    </row>
-    <row r="134" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W133" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -35928,9 +36317,11 @@
       <c r="V134" s="9">
         <v>815830962976</v>
       </c>
-      <c r="W134" s="5"/>
-    </row>
-    <row r="135" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W134" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -35996,9 +36387,11 @@
       <c r="V135" s="9">
         <v>220338971821</v>
       </c>
-      <c r="W135" s="5"/>
-    </row>
-    <row r="136" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W135" s="5" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -36067,10 +36460,10 @@
         <v>984008000168</v>
       </c>
       <c r="W136" s="5" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -36138,9 +36531,11 @@
       <c r="V137" s="9">
         <v>517018081881</v>
       </c>
-      <c r="W137" s="5"/>
-    </row>
-    <row r="138" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W137" s="5" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -36209,10 +36604,10 @@
         <v>904534924389</v>
       </c>
       <c r="W138" s="5" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -36281,10 +36676,10 @@
         <v>224087886244</v>
       </c>
       <c r="W139" s="5" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -36356,7 +36751,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -36425,10 +36820,10 @@
         <v>261336058725</v>
       </c>
       <c r="W141" s="5" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -36494,9 +36889,11 @@
       <c r="V142" s="9">
         <v>257203430607</v>
       </c>
-      <c r="W142" s="5"/>
-    </row>
-    <row r="143" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W142" s="5" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -36565,10 +36962,10 @@
         <v>865929934800</v>
       </c>
       <c r="W143" s="5" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -36640,7 +37037,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -36706,9 +37103,11 @@
       <c r="V145" s="9">
         <v>661950617621</v>
       </c>
-      <c r="W145" s="5"/>
-    </row>
-    <row r="146" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W145" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -36774,9 +37173,11 @@
       <c r="V146" s="9">
         <v>523432030406</v>
       </c>
-      <c r="W146" s="5"/>
-    </row>
-    <row r="147" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W146" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -36842,9 +37243,11 @@
       <c r="V147" s="9">
         <v>214786577425</v>
       </c>
-      <c r="W147" s="5"/>
-    </row>
-    <row r="148" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W147" s="5" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -36911,10 +37314,10 @@
         <v>587202320188</v>
       </c>
       <c r="W148" s="5" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -36978,9 +37381,11 @@
       <c r="V149" s="9">
         <v>814004852323</v>
       </c>
-      <c r="W149" s="5"/>
-    </row>
-    <row r="150" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W149" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -37048,9 +37453,11 @@
       <c r="V150" s="9">
         <v>706350645680</v>
       </c>
-      <c r="W150" s="5"/>
-    </row>
-    <row r="151" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W150" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -37116,9 +37523,11 @@
       <c r="V151" s="9">
         <v>636646802288</v>
       </c>
-      <c r="W151" s="5"/>
-    </row>
-    <row r="152" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W151" s="5" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -37184,9 +37593,11 @@
       <c r="V152" s="9">
         <v>867749611348</v>
       </c>
-      <c r="W152" s="5"/>
-    </row>
-    <row r="153" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W152" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -37252,9 +37663,11 @@
       <c r="V153" s="9">
         <v>524101054958</v>
       </c>
-      <c r="W153" s="5"/>
-    </row>
-    <row r="154" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W153" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -37320,9 +37733,11 @@
       <c r="V154" s="9">
         <v>279232302925</v>
       </c>
-      <c r="W154" s="5"/>
-    </row>
-    <row r="155" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W154" s="5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -37388,9 +37803,11 @@
       <c r="V155" s="9">
         <v>826509482810</v>
       </c>
-      <c r="W155" s="5"/>
-    </row>
-    <row r="156" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W155" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -37456,9 +37873,11 @@
       <c r="V156" s="9">
         <v>470138295700</v>
       </c>
-      <c r="W156" s="5"/>
-    </row>
-    <row r="157" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W156" s="5" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -37524,9 +37943,11 @@
       <c r="V157" s="9">
         <v>298867645111</v>
       </c>
-      <c r="W157" s="5"/>
-    </row>
-    <row r="158" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W157" s="5" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -37592,9 +38013,11 @@
       <c r="V158" s="9">
         <v>903552259250</v>
       </c>
-      <c r="W158" s="5"/>
-    </row>
-    <row r="159" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W158" s="5" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -37666,7 +38089,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="160" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -37733,10 +38156,10 @@
         <v>570227136030</v>
       </c>
       <c r="W160" s="5" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -37806,7 +38229,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="162" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -37872,9 +38295,11 @@
       <c r="V162" s="9">
         <v>501086163842</v>
       </c>
-      <c r="W162" s="5"/>
-    </row>
-    <row r="163" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W162" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -37944,7 +38369,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="164" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -38010,9 +38435,11 @@
       <c r="V164" s="9">
         <v>330924482039</v>
       </c>
-      <c r="W164" s="5"/>
-    </row>
-    <row r="165" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W164" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -38078,9 +38505,11 @@
       <c r="V165" s="9">
         <v>777913154243</v>
       </c>
-      <c r="W165" s="5"/>
-    </row>
-    <row r="166" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W165" s="5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -38152,7 +38581,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="167" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -38218,9 +38647,11 @@
       <c r="V167" s="9">
         <v>599028981229</v>
       </c>
-      <c r="W167" s="5"/>
-    </row>
-    <row r="168" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W167" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -38286,9 +38717,11 @@
       <c r="V168" s="9">
         <v>435770099541</v>
       </c>
-      <c r="W168" s="5"/>
-    </row>
-    <row r="169" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W168" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -38356,7 +38789,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="170" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -38422,9 +38855,11 @@
       <c r="V170" s="9">
         <v>247026398188</v>
       </c>
-      <c r="W170" s="5"/>
-    </row>
-    <row r="171" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W170" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -38490,9 +38925,11 @@
       <c r="V171" s="9">
         <v>738695076312</v>
       </c>
-      <c r="W171" s="5"/>
-    </row>
-    <row r="172" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W171" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -38564,7 +39001,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="173" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -38636,7 +39073,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="174" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -38702,9 +39139,11 @@
       <c r="V174" s="9">
         <v>858590348637</v>
       </c>
-      <c r="W174" s="5"/>
-    </row>
-    <row r="175" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W174" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -38772,9 +39211,11 @@
       <c r="V175" s="9">
         <v>799625979789</v>
       </c>
-      <c r="W175" s="5"/>
-    </row>
-    <row r="176" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W175" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -38842,9 +39283,11 @@
       <c r="V176" s="9">
         <v>517929737486</v>
       </c>
-      <c r="W176" s="5"/>
-    </row>
-    <row r="177" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W176" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -38910,9 +39353,11 @@
       <c r="V177" s="9">
         <v>348517167256</v>
       </c>
-      <c r="W177" s="5"/>
-    </row>
-    <row r="178" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W177" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -38978,9 +39423,11 @@
       <c r="V178" s="9">
         <v>381961439076</v>
       </c>
-      <c r="W178" s="5"/>
-    </row>
-    <row r="179" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W178" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -39046,9 +39493,11 @@
       <c r="V179" s="9">
         <v>675830540320</v>
       </c>
-      <c r="W179" s="5"/>
-    </row>
-    <row r="180" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W179" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -39114,9 +39563,11 @@
       <c r="V180" s="9">
         <v>839202115303</v>
       </c>
-      <c r="W180" s="5"/>
-    </row>
-    <row r="181" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W180" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -39182,9 +39633,11 @@
       <c r="V181" s="9">
         <v>531925784049</v>
       </c>
-      <c r="W181" s="5"/>
-    </row>
-    <row r="182" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W181" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -39250,9 +39703,11 @@
       <c r="V182" s="9">
         <v>325456902420</v>
       </c>
-      <c r="W182" s="5"/>
-    </row>
-    <row r="183" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W182" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -39318,9 +39773,11 @@
       <c r="V183" s="9">
         <v>495865272453</v>
       </c>
-      <c r="W183" s="5"/>
-    </row>
-    <row r="184" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W183" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -39386,9 +39843,11 @@
       <c r="V184" s="9">
         <v>632039837013</v>
       </c>
-      <c r="W184" s="5"/>
-    </row>
-    <row r="185" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W184" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -39454,9 +39913,11 @@
       <c r="V185" s="9">
         <v>489146438641</v>
       </c>
-      <c r="W185" s="5"/>
-    </row>
-    <row r="186" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W185" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -39522,9 +39983,11 @@
       <c r="V186" s="9">
         <v>749101546866</v>
       </c>
-      <c r="W186" s="5"/>
-    </row>
-    <row r="187" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W186" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -39590,9 +40053,11 @@
       <c r="V187" s="9">
         <v>639678746413</v>
       </c>
-      <c r="W187" s="5"/>
-    </row>
-    <row r="188" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W187" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -39658,9 +40123,11 @@
       <c r="V188" s="9">
         <v>862660337515</v>
       </c>
-      <c r="W188" s="5"/>
-    </row>
-    <row r="189" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W188" s="5" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -39726,9 +40193,11 @@
       <c r="V189" s="9">
         <v>329567839869</v>
       </c>
-      <c r="W189" s="5"/>
-    </row>
-    <row r="190" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W189" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -39794,9 +40263,11 @@
       <c r="V190" s="9">
         <v>691647053008</v>
       </c>
-      <c r="W190" s="5"/>
-    </row>
-    <row r="191" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W190" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -39864,9 +40335,11 @@
       <c r="V191" s="9">
         <v>243392629244</v>
       </c>
-      <c r="W191" s="5"/>
-    </row>
-    <row r="192" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W191" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -39934,9 +40407,11 @@
       <c r="V192" s="9">
         <v>481438602117</v>
       </c>
-      <c r="W192" s="5"/>
-    </row>
-    <row r="193" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W192" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -40004,9 +40479,11 @@
       <c r="V193" s="9">
         <v>930924595925</v>
       </c>
-      <c r="W193" s="5"/>
-    </row>
-    <row r="194" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W193" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -40072,9 +40549,11 @@
       <c r="V194" s="9">
         <v>332482442777</v>
       </c>
-      <c r="W194" s="5"/>
-    </row>
-    <row r="195" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W194" s="5" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -40140,9 +40619,11 @@
       <c r="V195" s="9">
         <v>207860682351</v>
       </c>
-      <c r="W195" s="5"/>
-    </row>
-    <row r="196" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W195" s="5" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -40206,11 +40687,13 @@
         <v>0</v>
       </c>
       <c r="V196" s="9">
-        <v>46397677587</v>
-      </c>
-      <c r="W196" s="5"/>
-    </row>
-    <row r="197" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>463976777587</v>
+      </c>
+      <c r="W196" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <f t="shared" ref="A197:A260" si="3">A196+1</f>
         <v>191</v>
@@ -40276,9 +40759,11 @@
       <c r="V197" s="9">
         <v>388999937180</v>
       </c>
-      <c r="W197" s="5"/>
-    </row>
-    <row r="198" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W197" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -40344,7 +40829,9 @@
       <c r="V198" s="9">
         <v>704413475274</v>
       </c>
-      <c r="W198" s="5"/>
+      <c r="W198" s="5" t="s">
+        <v>1509</v>
+      </c>
     </row>
     <row r="199" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
@@ -40405,7 +40892,7 @@
       </c>
       <c r="V199" s="9"/>
       <c r="W199" s="5" t="s">
-        <v>1441</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="200" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40467,7 +40954,7 @@
       </c>
       <c r="V200" s="9"/>
       <c r="W200" s="5" t="s">
-        <v>1441</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="201" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40529,7 +41016,7 @@
       </c>
       <c r="V201" s="9"/>
       <c r="W201" s="5" t="s">
-        <v>1441</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="202" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40594,7 +41081,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="203" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -40660,9 +41147,11 @@
       <c r="V203" s="9">
         <v>402306011967</v>
       </c>
-      <c r="W203" s="5"/>
-    </row>
-    <row r="204" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W203" s="5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -40728,9 +41217,11 @@
       <c r="V204" s="9">
         <v>778526629204</v>
       </c>
-      <c r="W204" s="5"/>
-    </row>
-    <row r="205" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W204" s="5" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -40794,9 +41285,11 @@
       <c r="V205" s="9">
         <v>507498033657</v>
       </c>
-      <c r="W205" s="5"/>
-    </row>
-    <row r="206" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W205" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -40864,9 +41357,11 @@
       <c r="V206" s="9">
         <v>561744133802</v>
       </c>
-      <c r="W206" s="5"/>
-    </row>
-    <row r="207" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W206" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -40934,9 +41429,11 @@
       <c r="V207" s="9">
         <v>609631564258</v>
       </c>
-      <c r="W207" s="5"/>
-    </row>
-    <row r="208" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W207" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -41004,9 +41501,11 @@
       <c r="V208" s="9">
         <v>610728768465</v>
       </c>
-      <c r="W208" s="5"/>
-    </row>
-    <row r="209" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W208" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -41072,9 +41571,11 @@
       <c r="V209" s="9">
         <v>627767440535</v>
       </c>
-      <c r="W209" s="5"/>
-    </row>
-    <row r="210" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W209" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -41140,9 +41641,11 @@
       <c r="V210" s="9">
         <v>589244129835</v>
       </c>
-      <c r="W210" s="5"/>
-    </row>
-    <row r="211" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W210" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -41208,9 +41711,11 @@
       <c r="V211" s="9">
         <v>438130778111</v>
       </c>
-      <c r="W211" s="5"/>
-    </row>
-    <row r="212" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W211" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -41276,9 +41781,11 @@
       <c r="V212" s="9">
         <v>879731997728</v>
       </c>
-      <c r="W212" s="5"/>
-    </row>
-    <row r="213" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W212" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -41344,9 +41851,11 @@
       <c r="V213" s="9">
         <v>912355057114</v>
       </c>
-      <c r="W213" s="5"/>
-    </row>
-    <row r="214" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W213" s="5" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -41412,9 +41921,11 @@
       <c r="V214" s="9">
         <v>695499311601</v>
       </c>
-      <c r="W214" s="5"/>
-    </row>
-    <row r="215" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W214" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -41484,7 +41995,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="216" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -41550,9 +42061,11 @@
       <c r="V216" s="9">
         <v>636002929450</v>
       </c>
-      <c r="W216" s="5"/>
-    </row>
-    <row r="217" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W216" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -41618,9 +42131,11 @@
       <c r="V217" s="9">
         <v>473417112782</v>
       </c>
-      <c r="W217" s="5"/>
-    </row>
-    <row r="218" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W217" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -41690,7 +42205,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="219" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -41758,9 +42273,11 @@
       <c r="V219" s="9">
         <v>788920442111</v>
       </c>
-      <c r="W219" s="5"/>
-    </row>
-    <row r="220" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W219" s="5" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -41824,9 +42341,11 @@
       <c r="V220" s="9">
         <v>414948230574</v>
       </c>
-      <c r="W220" s="5"/>
-    </row>
-    <row r="221" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W220" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -41892,9 +42411,11 @@
       <c r="V221" s="9">
         <v>365427644144</v>
       </c>
-      <c r="W221" s="5"/>
-    </row>
-    <row r="222" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W221" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -41960,9 +42481,11 @@
       <c r="V222" s="9">
         <v>363483218662</v>
       </c>
-      <c r="W222" s="5"/>
-    </row>
-    <row r="223" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W222" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -42028,9 +42551,11 @@
       <c r="V223" s="9">
         <v>977237934523</v>
       </c>
-      <c r="W223" s="5"/>
-    </row>
-    <row r="224" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W223" s="5" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -42096,9 +42621,11 @@
       <c r="V224" s="9">
         <v>943305089452</v>
       </c>
-      <c r="W224" s="5"/>
-    </row>
-    <row r="225" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W224" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -42166,9 +42693,11 @@
       <c r="V225" s="9">
         <v>924218750589</v>
       </c>
-      <c r="W225" s="5"/>
-    </row>
-    <row r="226" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W225" s="5" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -42234,9 +42763,11 @@
       <c r="V226" s="9">
         <v>211401667445</v>
       </c>
-      <c r="W226" s="5"/>
-    </row>
-    <row r="227" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W226" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -42302,9 +42833,11 @@
       <c r="V227" s="9">
         <v>439658226160</v>
       </c>
-      <c r="W227" s="5"/>
-    </row>
-    <row r="228" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W227" s="5" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -42370,9 +42903,11 @@
       <c r="V228" s="9">
         <v>995920959049</v>
       </c>
-      <c r="W228" s="5"/>
-    </row>
-    <row r="229" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W228" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -42438,9 +42973,11 @@
       <c r="V229" s="9">
         <v>627475633593</v>
       </c>
-      <c r="W229" s="5"/>
-    </row>
-    <row r="230" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W229" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -42506,9 +43043,11 @@
       <c r="V230" s="9">
         <v>588776453659</v>
       </c>
-      <c r="W230" s="5"/>
-    </row>
-    <row r="231" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W230" s="5" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -42576,9 +43115,11 @@
       <c r="V231" s="9">
         <v>917435999788</v>
       </c>
-      <c r="W231" s="5"/>
-    </row>
-    <row r="232" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W231" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -42644,9 +43185,11 @@
       <c r="V232" s="9">
         <v>257403744103</v>
       </c>
-      <c r="W232" s="5"/>
-    </row>
-    <row r="233" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W232" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -42712,9 +43255,11 @@
       <c r="V233" s="9">
         <v>652399373209</v>
       </c>
-      <c r="W233" s="5"/>
-    </row>
-    <row r="234" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W233" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -42780,9 +43325,11 @@
       <c r="V234" s="9">
         <v>849785899885</v>
       </c>
-      <c r="W234" s="5"/>
-    </row>
-    <row r="235" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W234" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -42846,9 +43393,11 @@
       <c r="V235" s="9">
         <v>493880622081</v>
       </c>
-      <c r="W235" s="5"/>
-    </row>
-    <row r="236" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W235" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -42916,9 +43465,11 @@
       <c r="V236" s="9">
         <v>611216030835</v>
       </c>
-      <c r="W236" s="5"/>
-    </row>
-    <row r="237" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W236" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -42984,9 +43535,11 @@
       <c r="V237" s="9">
         <v>398959200950</v>
       </c>
-      <c r="W237" s="5"/>
-    </row>
-    <row r="238" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W237" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -43052,9 +43605,11 @@
       <c r="V238" s="9">
         <v>822686818553</v>
       </c>
-      <c r="W238" s="5"/>
-    </row>
-    <row r="239" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W238" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -43120,9 +43675,11 @@
       <c r="V239" s="9">
         <v>468236264887</v>
       </c>
-      <c r="W239" s="5"/>
-    </row>
-    <row r="240" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W239" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -43188,9 +43745,11 @@
       <c r="V240" s="9">
         <v>548437386128</v>
       </c>
-      <c r="W240" s="5"/>
-    </row>
-    <row r="241" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W240" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -43256,9 +43815,11 @@
       <c r="V241" s="9">
         <v>766272402141</v>
       </c>
-      <c r="W241" s="5"/>
-    </row>
-    <row r="242" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W241" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -43322,9 +43883,11 @@
       <c r="V242" s="9">
         <v>316635977123</v>
       </c>
-      <c r="W242" s="5"/>
-    </row>
-    <row r="243" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W242" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -43390,9 +43953,11 @@
       <c r="V243" s="9">
         <v>983879246914</v>
       </c>
-      <c r="W243" s="5"/>
-    </row>
-    <row r="244" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W243" s="5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -43458,9 +44023,11 @@
       <c r="V244" s="9">
         <v>238331819770</v>
       </c>
-      <c r="W244" s="5"/>
-    </row>
-    <row r="245" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W244" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>1</v>
       </c>
@@ -43525,9 +44092,11 @@
       <c r="V245" s="9">
         <v>837189607291</v>
       </c>
-      <c r="W245" s="5"/>
-    </row>
-    <row r="246" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W245" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -43595,9 +44164,11 @@
       <c r="V246" s="9">
         <v>449321226151</v>
       </c>
-      <c r="W246" s="5"/>
-    </row>
-    <row r="247" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W246" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -43665,9 +44236,11 @@
       <c r="V247" s="9">
         <v>943865725742</v>
       </c>
-      <c r="W247" s="5"/>
-    </row>
-    <row r="248" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W247" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -43733,9 +44306,11 @@
       <c r="V248" s="9">
         <v>494787282718</v>
       </c>
-      <c r="W248" s="5"/>
-    </row>
-    <row r="249" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W248" s="5" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>1</v>
       </c>
@@ -43800,9 +44375,11 @@
       <c r="V249" s="9">
         <v>642869608037</v>
       </c>
-      <c r="W249" s="5"/>
-    </row>
-    <row r="250" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W249" s="5" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -43868,9 +44445,11 @@
       <c r="V250" s="9">
         <v>306400314202</v>
       </c>
-      <c r="W250" s="5"/>
-    </row>
-    <row r="251" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W250" s="5" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -43936,9 +44515,11 @@
       <c r="V251" s="9">
         <v>235344531129</v>
       </c>
-      <c r="W251" s="5"/>
-    </row>
-    <row r="252" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W251" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -44004,9 +44585,11 @@
       <c r="V252" s="9">
         <v>334404230999</v>
       </c>
-      <c r="W252" s="5"/>
-    </row>
-    <row r="253" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W252" s="5" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -44072,9 +44655,11 @@
       <c r="V253" s="9">
         <v>231159874173</v>
       </c>
-      <c r="W253" s="5"/>
-    </row>
-    <row r="254" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W253" s="5" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -44140,9 +44725,11 @@
       <c r="V254" s="9">
         <v>527764514365</v>
       </c>
-      <c r="W254" s="5"/>
-    </row>
-    <row r="255" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W254" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -44208,9 +44795,11 @@
       <c r="V255" s="9">
         <v>575014253760</v>
       </c>
-      <c r="W255" s="5"/>
-    </row>
-    <row r="256" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W255" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>1</v>
       </c>
@@ -44275,9 +44864,11 @@
       <c r="V256" s="9">
         <v>859048345951</v>
       </c>
-      <c r="W256" s="5"/>
-    </row>
-    <row r="257" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W256" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -44343,9 +44934,11 @@
       <c r="V257" s="9">
         <v>873865225988</v>
       </c>
-      <c r="W257" s="5"/>
-    </row>
-    <row r="258" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W257" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -44411,9 +45004,11 @@
       <c r="V258" s="9">
         <v>656741932668</v>
       </c>
-      <c r="W258" s="5"/>
-    </row>
-    <row r="259" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W258" s="5" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -44482,10 +45077,10 @@
         <v>796873838818</v>
       </c>
       <c r="W259" s="5" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="260" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -44551,9 +45146,11 @@
       <c r="V260" s="9">
         <v>485732018702</v>
       </c>
-      <c r="W260" s="5"/>
-    </row>
-    <row r="261" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W260" s="5" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <f t="shared" ref="A261:A315" si="4">A260+1</f>
         <v>6</v>
@@ -44619,11 +45216,13 @@
         <v>0</v>
       </c>
       <c r="V261" s="9">
-        <v>3020066367</v>
-      </c>
-      <c r="W261" s="5"/>
-    </row>
-    <row r="262" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302006566367</v>
+      </c>
+      <c r="W261" s="5" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -44689,9 +45288,11 @@
       <c r="V262" s="9">
         <v>580291137210</v>
       </c>
-      <c r="W262" s="5"/>
-    </row>
-    <row r="263" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W262" s="5" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -44759,9 +45360,11 @@
       <c r="V263" s="9">
         <v>801619602538</v>
       </c>
-      <c r="W263" s="5"/>
-    </row>
-    <row r="264" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W263" s="5" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -44827,9 +45430,11 @@
       <c r="V264" s="9">
         <v>422510997486</v>
       </c>
-      <c r="W264" s="5"/>
-    </row>
-    <row r="265" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W264" s="5" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -44891,9 +45496,11 @@
       <c r="V265" s="9">
         <v>257557074404</v>
       </c>
-      <c r="W265" s="5"/>
-    </row>
-    <row r="266" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W265" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -44960,10 +45567,10 @@
         <v>552164574981</v>
       </c>
       <c r="W266" s="5" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="267" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -45029,9 +45636,11 @@
       <c r="V267" s="9">
         <v>351209609910</v>
       </c>
-      <c r="W267" s="5"/>
-    </row>
-    <row r="268" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W267" s="5" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -45100,10 +45709,10 @@
         <v>572880907854</v>
       </c>
       <c r="W268" s="5" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="269" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -45171,9 +45780,11 @@
       <c r="V269" s="9">
         <v>644612536082</v>
       </c>
-      <c r="W269" s="5"/>
-    </row>
-    <row r="270" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W269" s="5" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -45241,9 +45852,11 @@
       <c r="V270" s="9">
         <v>994717445252</v>
       </c>
-      <c r="W270" s="5"/>
-    </row>
-    <row r="271" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W270" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -45311,9 +45924,11 @@
       <c r="V271" s="9">
         <v>408756981184</v>
       </c>
-      <c r="W271" s="5"/>
-    </row>
-    <row r="272" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W271" s="5" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -45379,9 +45994,11 @@
       <c r="V272" s="9">
         <v>805123056195</v>
       </c>
-      <c r="W272" s="5"/>
-    </row>
-    <row r="273" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W272" s="5" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -45447,9 +46064,11 @@
       <c r="V273" s="9">
         <v>893198461347</v>
       </c>
-      <c r="W273" s="5"/>
-    </row>
-    <row r="274" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W273" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -45515,9 +46134,11 @@
       <c r="V274" s="9">
         <v>208083359745</v>
       </c>
-      <c r="W274" s="5"/>
-    </row>
-    <row r="275" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W274" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -45583,9 +46204,11 @@
       <c r="V275" s="9">
         <v>406393437651</v>
       </c>
-      <c r="W275" s="5"/>
-    </row>
-    <row r="276" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W275" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -45651,9 +46274,11 @@
       <c r="V276" s="9">
         <v>246812944404</v>
       </c>
-      <c r="W276" s="5"/>
-    </row>
-    <row r="277" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W276" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -45721,9 +46346,11 @@
       <c r="V277" s="9">
         <v>516523137632</v>
       </c>
-      <c r="W277" s="5"/>
-    </row>
-    <row r="278" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W277" s="5" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -45791,9 +46418,11 @@
       <c r="V278" s="9">
         <v>952317994906</v>
       </c>
-      <c r="W278" s="5"/>
-    </row>
-    <row r="279" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W278" s="5" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -45861,9 +46490,11 @@
       <c r="V279" s="9">
         <v>745915794538</v>
       </c>
-      <c r="W279" s="5"/>
-    </row>
-    <row r="280" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W279" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -45929,9 +46560,11 @@
       <c r="V280" s="9">
         <v>611367631780</v>
       </c>
-      <c r="W280" s="5"/>
-    </row>
-    <row r="281" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W280" s="5" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -45999,9 +46632,11 @@
       <c r="V281" s="9">
         <v>373965361154</v>
       </c>
-      <c r="W281" s="5"/>
-    </row>
-    <row r="282" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W281" s="5" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -46069,9 +46704,11 @@
       <c r="V282" s="9">
         <v>542514112665</v>
       </c>
-      <c r="W282" s="5"/>
-    </row>
-    <row r="283" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W282" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -46137,9 +46774,11 @@
       <c r="V283" s="9">
         <v>516852214006</v>
       </c>
-      <c r="W283" s="5"/>
-    </row>
-    <row r="284" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W283" s="5" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -46205,9 +46844,11 @@
       <c r="V284" s="9">
         <v>841423059711</v>
       </c>
-      <c r="W284" s="5"/>
-    </row>
-    <row r="285" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W284" s="5" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -46273,9 +46914,11 @@
       <c r="V285" s="9">
         <v>757084569765</v>
       </c>
-      <c r="W285" s="5"/>
-    </row>
-    <row r="286" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W285" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -46343,9 +46986,11 @@
       <c r="V286" s="9">
         <v>591655654083</v>
       </c>
-      <c r="W286" s="5"/>
-    </row>
-    <row r="287" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W286" s="5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" s="2" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -46409,9 +47054,11 @@
       <c r="V287" s="9">
         <v>701879653699</v>
       </c>
-      <c r="W287" s="5"/>
-    </row>
-    <row r="288" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W287" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>1</v>
       </c>
@@ -46478,9 +47125,11 @@
       <c r="V288" s="9">
         <v>225485831797</v>
       </c>
-      <c r="W288" s="5"/>
-    </row>
-    <row r="289" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W288" s="5" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -46546,9 +47195,11 @@
       <c r="V289" s="9">
         <v>917660556336</v>
       </c>
-      <c r="W289" s="5"/>
-    </row>
-    <row r="290" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W289" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -46614,9 +47265,11 @@
       <c r="V290" s="9">
         <v>558137349920</v>
       </c>
-      <c r="W290" s="5"/>
-    </row>
-    <row r="291" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W290" s="5" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>1</v>
       </c>
@@ -46929,7 +47582,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="296" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -47227,7 +47880,7 @@
       <c r="V300" s="9"/>
       <c r="W300" s="5"/>
     </row>
-    <row r="301" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -47289,7 +47942,7 @@
       </c>
       <c r="W301" s="5"/>
     </row>
-    <row r="302" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -47353,7 +48006,7 @@
       </c>
       <c r="W302" s="5"/>
     </row>
-    <row r="303" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -47417,7 +48070,7 @@
       </c>
       <c r="W303" s="5"/>
     </row>
-    <row r="304" spans="1:23" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -47481,7 +48134,7 @@
       </c>
       <c r="W304" s="5"/>
     </row>
-    <row r="305" spans="1:26" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -47603,7 +48256,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="307" spans="1:26" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -47781,7 +48434,7 @@
       <c r="V309" s="9"/>
       <c r="W309" s="5"/>
     </row>
-    <row r="310" spans="1:26" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -47908,7 +48561,7 @@
       <c r="V311" s="9"/>
       <c r="W311" s="5"/>
     </row>
-    <row r="312" spans="1:26" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" s="2" customFormat="1" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -48148,7 +48801,11 @@
       <c r="W315" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z315"/>
+  <autoFilter ref="A2:Z315">
+    <filterColumn colId="21">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B3:W315">
     <sortCondition ref="B3:B315"/>
     <sortCondition ref="C3:C315"/>
@@ -48159,6 +48816,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.26" bottom="0.31496062992125984" header="0.2" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>